--- a/resource/excel_bar/CommonConfig.xlsx
+++ b/resource/excel_bar/CommonConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuaijiewu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bililive_dm\resource\excel_bar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9757169B-1B4F-4FA2-807A-6DB07ECEFD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1614819-8781-4121-98EA-B7C76897041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30820" yWindow="5570" windowWidth="27440" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32020" yWindow="6380" windowWidth="27440" windowHeight="13070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonConfig" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Dict&lt;String,String&gt;</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>DictIF</t>
   </si>
   <si>
@@ -107,13 +104,31 @@
   </si>
   <si>
     <t>Single[]</t>
+  </si>
+  <si>
+    <t>人气50Squad</t>
+  </si>
+  <si>
+    <t>DictSII</t>
+  </si>
+  <si>
+    <t>DictIII</t>
+  </si>
+  <si>
+    <t>Dict&lt;String,Pair&lt;Int32,Int32&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Dict&lt;Int32,Pair&lt;Int32,Int32&gt;&gt;</t>
+  </si>
+  <si>
+    <t>2:2;3:3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +140,7 @@
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -492,13 +507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -510,9 +525,11 @@
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="29.140625" customWidth="1"/>
     <col min="10" max="10" width="42.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" customWidth="1"/>
+    <col min="12" max="12" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,22 +546,28 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -552,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -561,22 +584,28 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -587,8 +616,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -601,25 +632,30 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
   </sheetData>
@@ -636,12 +672,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -649,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -657,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -665,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -673,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>

--- a/resource/excel_bar/CommonConfig.xlsx
+++ b/resource/excel_bar/CommonConfig.xlsx
@@ -1,42 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bililive_dm\resource\excel_bar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1614819-8781-4121-98EA-B7C76897041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32020" yWindow="6380" windowWidth="27440" windowHeight="13070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15930"/>
   </bookViews>
   <sheets>
     <sheet name="CommonConfig" sheetId="1" r:id="rId1"/>
     <sheet name="_ItemType" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>DictSI</t>
+  </si>
+  <si>
+    <t>DictSF</t>
+  </si>
+  <si>
+    <t>DictSS</t>
+  </si>
+  <si>
+    <t>DictII</t>
+  </si>
+  <si>
+    <t>DictIF</t>
+  </si>
+  <si>
+    <t>DictIS</t>
+  </si>
+  <si>
+    <t>ARRS</t>
+  </si>
+  <si>
+    <t>ARRI</t>
+  </si>
+  <si>
+    <t>ARRF</t>
+  </si>
+  <si>
+    <t>DictSII</t>
+  </si>
+  <si>
+    <t>DictIII</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
+    <t>Dict&lt;String,Int32&gt;</t>
+  </si>
+  <si>
+    <t>Dict&lt;String,Single&gt;</t>
+  </si>
+  <si>
+    <t>Dict&lt;String,String&gt;</t>
+  </si>
+  <si>
+    <t>Dict&lt;Int32,Int32&gt;</t>
+  </si>
+  <si>
+    <t>Dict&lt;Int32,Single&gt;</t>
+  </si>
+  <si>
+    <t>Dict&lt;Int32,String&gt;</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>Int32[]</t>
+  </si>
+  <si>
+    <t>Single[]</t>
+  </si>
+  <si>
+    <t>Dict&lt;String,Pair&lt;Int32,Int32&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Dict&lt;Int32,Pair&lt;Int32,Int32&gt;&gt;</t>
+  </si>
+  <si>
     <t>Partial:3;CustomEnum:_ItemType</t>
   </si>
   <si>
+    <t>人气50Squad</t>
+  </si>
+  <si>
+    <t>2:2;3:3;1:1;</t>
+  </si>
+  <si>
+    <t>DailySign</t>
+  </si>
+  <si>
+    <t>DailySign:1</t>
+  </si>
+  <si>
+    <t>DailyLike</t>
+  </si>
+  <si>
+    <t>DailyLike:1</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -50,101 +123,179 @@
   </si>
   <si>
     <t>SpecialGift</t>
-  </si>
-  <si>
-    <t>Dict&lt;String,Int32&gt;</t>
-  </si>
-  <si>
-    <t>Dict&lt;Int32,Int32&gt;</t>
-  </si>
-  <si>
-    <t>DictSI</t>
-  </si>
-  <si>
-    <t>DictII</t>
-  </si>
-  <si>
-    <t>DictSF</t>
-  </si>
-  <si>
-    <t>DictSS</t>
-  </si>
-  <si>
-    <t>Dict&lt;String,String&gt;</t>
-  </si>
-  <si>
-    <t>DictIF</t>
-  </si>
-  <si>
-    <t>DictIS</t>
-  </si>
-  <si>
-    <t>Dict&lt;Int32,String&gt;</t>
-  </si>
-  <si>
-    <t>ARRS</t>
-  </si>
-  <si>
-    <t>String[]</t>
-  </si>
-  <si>
-    <t>ARRI</t>
-  </si>
-  <si>
-    <t>Int32[]</t>
-  </si>
-  <si>
-    <t>ARRF</t>
-  </si>
-  <si>
-    <t>Dict&lt;String,Single&gt;</t>
-  </si>
-  <si>
-    <t>Dict&lt;Int32,Single&gt;</t>
-  </si>
-  <si>
-    <t>Single[]</t>
-  </si>
-  <si>
-    <t>人气50Squad</t>
-  </si>
-  <si>
-    <t>DictSII</t>
-  </si>
-  <si>
-    <t>DictIII</t>
-  </si>
-  <si>
-    <t>Dict&lt;String,Pair&lt;Int32,Int32&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Dict&lt;Int32,Pair&lt;Int32,Int32&gt;&gt;</t>
-  </si>
-  <si>
-    <t>2:2;3:3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,7 +304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,13 +322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,18 +340,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,43 +527,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,7 +898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -322,7 +933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -496,222 +1107,229 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.5666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.425" customWidth="1"/>
+    <col min="4" max="4" width="25.1416666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.1416666666667" customWidth="1"/>
+    <col min="7" max="7" width="26.7083333333333" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" customWidth="1"/>
-    <col min="12" max="12" width="52.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="42.2833333333333" customWidth="1"/>
+    <col min="11" max="11" width="35.2833333333333" customWidth="1"/>
+    <col min="12" max="12" width="52.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985A5D22-847B-404D-AA97-972234A1923F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -719,5 +1337,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/excel_bar/CommonConfig.xlsx
+++ b/resource/excel_bar/CommonConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15930"/>
+    <workbookView windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="CommonConfig" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>人气50Squad</t>
   </si>
   <si>
-    <t>2:2;3:3;1:1;</t>
+    <t>2:4;3:6;1:2;</t>
   </si>
   <si>
     <t>DailySign</t>
@@ -130,8 +130,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -151,6 +151,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -161,128 +267,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,13 +346,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,121 +466,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,8 +531,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,21 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,7 +586,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,8 +605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,27 +625,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,16 +643,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,115 +661,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/resource/excel_bar/CommonConfig.xlsx
+++ b/resource/excel_bar/CommonConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12315"/>
+    <workbookView windowWidth="31515" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="CommonConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -95,7 +95,7 @@
     <t>人气50Squad</t>
   </si>
   <si>
-    <t>2:4;3:6;1:2;</t>
+    <t>2:4;3:12;1:2;</t>
   </si>
   <si>
     <t>DailySign</t>
@@ -108,6 +108,51 @@
   </si>
   <si>
     <t>DailyLike:1</t>
+  </si>
+  <si>
+    <t>中秋Gift</t>
+  </si>
+  <si>
+    <t>中秋Gift:1</t>
+  </si>
+  <si>
+    <t>中秋GiftList</t>
+  </si>
+  <si>
+    <t>中秋Gift1:1;中秋Honor1:1</t>
+  </si>
+  <si>
+    <t>中秋GiftListP</t>
+  </si>
+  <si>
+    <t>中秋GiftListR</t>
+  </si>
+  <si>
+    <t>小花花:5;这个好诶:1;少女祈祷:1;情书:1</t>
+  </si>
+  <si>
+    <t>中秋GiftListRP</t>
+  </si>
+  <si>
+    <t>小花花:6;这个好诶:2;少女祈祷:2;情书:1</t>
+  </si>
+  <si>
+    <t>中秋GiftLikeList</t>
+  </si>
+  <si>
+    <t>DailyLike:1;小花花:1</t>
+  </si>
+  <si>
+    <t>中秋GiftLikeListP</t>
+  </si>
+  <si>
+    <t>DailyLike:14;小花花:1</t>
+  </si>
+  <si>
+    <t>中秋DailyLike</t>
+  </si>
+  <si>
+    <t>中秋DailyLike:1</t>
   </si>
   <si>
     <t>None</t>
@@ -131,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,6 +196,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -158,6 +204,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -166,12 +227,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -179,24 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,40 +272,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,44 +339,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -340,181 +385,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,9 +575,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +608,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,46 +656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,137 +688,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -794,6 +839,7 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1113,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1265,14 +1311,69 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7"/>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,7 +1398,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1305,7 +1406,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1313,7 +1414,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1321,7 +1422,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1329,7 +1430,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>8</v>
